--- a/testing_result.xlsx
+++ b/testing_result.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>

--- a/testing_result.xlsx
+++ b/testing_result.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>healthy</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>subdural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>epidural</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>intraventricular</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>subarachnoid</t>
+          <t>subdural</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>subarachnoid</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>intraventricular</t>
+          <t>intraparenchymal</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>intraparenchymal</t>
+          <t>epidural</t>
         </is>
       </c>
     </row>
